--- a/output/1Y_P23_1VAL-D.xlsx
+++ b/output/1Y_P23_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>12.8818</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>776.289</v>
       </c>
-      <c r="G2" s="1">
-        <v>776.289</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.143899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8818</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>12.8509</v>
       </c>
+      <c r="E3" s="1">
+        <v>776.289</v>
+      </c>
       <c r="F3" s="1">
         <v>778.1556</v>
       </c>
-      <c r="G3" s="1">
-        <v>1554.4446</v>
-      </c>
       <c r="H3" s="1">
-        <v>19872.3312</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8663</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8818</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19872.3312</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0038</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>13.8614</v>
       </c>
+      <c r="E4" s="1">
+        <v>1554.4446</v>
+      </c>
       <c r="F4" s="1">
         <v>721.4279</v>
       </c>
-      <c r="G4" s="1">
-        <v>2275.8725</v>
-      </c>
       <c r="H4" s="1">
-        <v>31383.1437</v>
+        <v>21435.0144</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.1818</v>
+        <v>21435.0144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.8663</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-10000</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31383.1437</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0506</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>14.3229</v>
       </c>
+      <c r="E5" s="1">
+        <v>2275.8725</v>
+      </c>
       <c r="F5" s="1">
         <v>698.1826</v>
       </c>
-      <c r="G5" s="1">
-        <v>2974.0551</v>
-      </c>
       <c r="H5" s="1">
-        <v>42376.1218</v>
+        <v>32427.9968</v>
       </c>
       <c r="I5" s="1">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4496</v>
+        <v>32427.9968</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>13.1818</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-10000</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42376.1218</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.024</v>
+        <v>0.0316</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>14.2341</v>
       </c>
+      <c r="E6" s="1">
+        <v>2974.0551</v>
+      </c>
       <c r="F6" s="1">
         <v>702.5383</v>
       </c>
-      <c r="G6" s="1">
-        <v>3676.5934</v>
-      </c>
       <c r="H6" s="1">
-        <v>52061.2978</v>
+        <v>42113.2154</v>
       </c>
       <c r="I6" s="1">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5995</v>
+        <v>42113.2154</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.4496</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10000</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52061.2978</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.006</v>
+        <v>-0.0074</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>13.7456</v>
       </c>
+      <c r="E7" s="1">
+        <v>3676.5934</v>
+      </c>
       <c r="F7" s="1">
         <v>727.5055</v>
       </c>
-      <c r="G7" s="1">
-        <v>4404.0989</v>
-      </c>
       <c r="H7" s="1">
-        <v>60222.9699</v>
+        <v>50274.8411</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6237</v>
+        <v>50274.8411</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.5995</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10000</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60222.9699</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0296</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>14.5325</v>
       </c>
+      <c r="E8" s="1">
+        <v>4404.0989</v>
+      </c>
       <c r="F8" s="1">
         <v>688.1129</v>
       </c>
-      <c r="G8" s="1">
-        <v>5092.2118</v>
-      </c>
       <c r="H8" s="1">
-        <v>73618.6148</v>
+        <v>63670.4986</v>
       </c>
       <c r="I8" s="1">
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7465</v>
+        <v>63670.4986</v>
       </c>
       <c r="K8" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13.6237</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.75</v>
       </c>
-      <c r="L8" s="1">
-        <v>2972.7668</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-7027.2332</v>
+        <v>2481.7005</v>
       </c>
       <c r="O8" s="1">
-        <v>2972.7668</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>76591.38159999999</v>
+        <v>-7518.2995</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0907</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>14.0538</v>
       </c>
+      <c r="E9" s="1">
+        <v>5092.2118</v>
+      </c>
       <c r="F9" s="1">
-        <v>753.8568</v>
-      </c>
-      <c r="G9" s="1">
-        <v>5846.0686</v>
+        <v>746.8685</v>
       </c>
       <c r="H9" s="1">
-        <v>81733.3008</v>
+        <v>71193.70359999999</v>
       </c>
       <c r="I9" s="1">
-        <v>80594.5534</v>
+        <v>2481.7005</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7861</v>
+        <v>73675.4041</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70496.3401</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>13.844</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10594.5534</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>2378.2134</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>84111.51420000001</v>
+        <v>-10496.3401</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0286</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>13.1873</v>
       </c>
+      <c r="E10" s="1">
+        <v>5839.0802</v>
+      </c>
       <c r="F10" s="1">
-        <v>803.3905999999999</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6649.4593</v>
+        <v>795.9431</v>
       </c>
       <c r="H10" s="1">
-        <v>87233.59110000001</v>
+        <v>76602.3098</v>
       </c>
       <c r="I10" s="1">
-        <v>91189.1067</v>
+        <v>1985.3604</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7138</v>
+        <v>78587.6703</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>80992.6802</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.8708</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10594.5534</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1783.6601</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89017.25109999999</v>
+        <v>-10496.3401</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0541</v>
+        <v>-0.0608</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>13.0538</v>
       </c>
+      <c r="E11" s="1">
+        <v>6635.0233</v>
+      </c>
       <c r="F11" s="1">
-        <v>811.6068</v>
-      </c>
-      <c r="G11" s="1">
-        <v>7461.0661</v>
+        <v>804.0830999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>96890.1505</v>
+        <v>86163.0763</v>
       </c>
       <c r="I11" s="1">
-        <v>101783.6601</v>
+        <v>1489.0203</v>
       </c>
       <c r="J11" s="1">
-        <v>13.642</v>
+        <v>87652.09669999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91489.0203</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7888</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10594.5534</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>1189.1067</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>98079.25719999999</v>
+        <v>-10496.3401</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0095</v>
+        <v>-0.0106</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>13.8433</v>
       </c>
+      <c r="E12" s="1">
+        <v>7439.1064</v>
+      </c>
       <c r="F12" s="1">
-        <v>765.3199</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8226.386</v>
+        <v>758.2252999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>113289.6752</v>
+        <v>102447.6542</v>
       </c>
       <c r="I12" s="1">
-        <v>112378.2134</v>
+        <v>992.6802</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6607</v>
+        <v>103440.3344</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101985.3604</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.7094</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10594.5534</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>594.5534</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>113884.2285</v>
+        <v>-10496.3401</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0537</v>
+        <v>0.0593</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>14.4086</v>
       </c>
+      <c r="E13" s="1">
+        <v>8197.331700000001</v>
+      </c>
       <c r="F13" s="1">
-        <v>735.2936999999999</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8961.6798</v>
+        <v>728.4774</v>
       </c>
       <c r="H13" s="1">
-        <v>128455.8216</v>
+        <v>117499.7331</v>
       </c>
       <c r="I13" s="1">
-        <v>122972.7668</v>
+        <v>496.3401</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7221</v>
+        <v>117996.0732</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112481.7005</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.7217</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10594.5534</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128455.8216</v>
+        <v>-10496.3401</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0369</v>
+        <v>0.0402</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>14.9338</v>
       </c>
+      <c r="E14" s="1">
+        <v>8925.8092</v>
+      </c>
       <c r="F14" s="1">
-        <v>-8961.6798</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-8197.331700000001</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132604.4986</v>
       </c>
       <c r="I14" s="1">
-        <v>122972.7668</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7221</v>
+        <v>132604.4986</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112481.7005</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6018</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>133137.4031</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>133137.4031</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133137.4031</v>
+        <v>121782.0192</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0384</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>12.8818</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>776.289</v>
       </c>
       <c r="G2" s="1">
-        <v>776.289</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8818</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>12.8509</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>776.289</v>
       </c>
       <c r="F3" s="1">
         <v>778.1556</v>
       </c>
       <c r="G3" s="1">
-        <v>1554.4446</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>19872.3312</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8663</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8818</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19872.3312</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0038</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>13.8614</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1554.4446</v>
       </c>
       <c r="F4" s="1">
         <v>621.1237</v>
       </c>
       <c r="G4" s="1">
-        <v>2175.5684</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>21435.0144</v>
       </c>
       <c r="I4" s="1">
-        <v>28609.6444</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.1504</v>
+        <v>21435.0144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18609.6444</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>11.9719</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8609.644399999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1390.3556</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31390.3556</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0508</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>14.3229</v>
       </c>
       <c r="E5" s="1">
-        <v>40000</v>
+        <v>2175.5684</v>
       </c>
       <c r="F5" s="1">
         <v>631.725</v>
       </c>
       <c r="G5" s="1">
-        <v>2807.2933</v>
+        <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>30998.8034</v>
       </c>
       <c r="I5" s="1">
-        <v>37657.7781</v>
+        <v>1390.3556</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4143</v>
+        <v>32389.1591</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27657.7781</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.7129</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9048.1337</v>
       </c>
-      <c r="O5" s="1">
-        <v>2342.2219</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42342.2219</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.023</v>
+        <v>0.0304</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>14.2341</v>
       </c>
       <c r="E6" s="1">
-        <v>50000</v>
+        <v>2807.2933</v>
       </c>
       <c r="F6" s="1">
         <v>723.7302</v>
       </c>
       <c r="G6" s="1">
-        <v>3531.0236</v>
+        <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>39751.8353</v>
       </c>
       <c r="I6" s="1">
-        <v>47959.4265</v>
+        <v>2342.2219</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5823</v>
+        <v>42094.0572</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>37959.4265</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.5217</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10301.6484</v>
       </c>
-      <c r="O6" s="1">
-        <v>2040.5735</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52040.5735</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0058</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>13.7456</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3531.0236</v>
       </c>
       <c r="F7" s="1">
         <v>856.7696</v>
       </c>
       <c r="G7" s="1">
-        <v>4387.7932</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>48284.2756</v>
       </c>
       <c r="I7" s="1">
-        <v>59736.2385</v>
+        <v>2040.5735</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6142</v>
+        <v>50324.8491</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49736.2385</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.0855</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11776.812</v>
       </c>
-      <c r="O7" s="1">
-        <v>263.7615</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60263.7615</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0286</v>
+        <v>-0.034</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>14.5325</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>4387.7932</v>
       </c>
       <c r="F8" s="1">
         <v>454.1184</v>
       </c>
       <c r="G8" s="1">
-        <v>4841.9116</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63434.7645</v>
       </c>
       <c r="I8" s="1">
-        <v>66335.71460000001</v>
+        <v>263.7615</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7003</v>
+        <v>63698.526</v>
       </c>
       <c r="K8" s="1">
+        <v>56335.7146</v>
+      </c>
+      <c r="L8" s="1">
+        <v>12.8392</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.75</v>
       </c>
-      <c r="L8" s="1">
-        <v>2961.7604</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-3637.7157</v>
+        <v>2383.4409</v>
       </c>
       <c r="O8" s="1">
-        <v>6626.0458</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>76626.04580000001</v>
+        <v>-4216.0351</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0905</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>14.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>4841.9116</v>
       </c>
       <c r="F9" s="1">
         <v>880.1807</v>
       </c>
       <c r="G9" s="1">
-        <v>5722.0923</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>67694.28170000001</v>
       </c>
       <c r="I9" s="1">
-        <v>78705.598</v>
+        <v>6047.7263</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7547</v>
+        <v>73742.008</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>68705.598</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.1898</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12369.8835</v>
       </c>
-      <c r="O9" s="1">
-        <v>4256.1623</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84256.1623</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0274</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>13.1873</v>
       </c>
       <c r="E10" s="1">
+        <v>5722.0923</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1037.1981</v>
+      </c>
+      <c r="G10" s="1">
         <v>90000</v>
       </c>
-      <c r="F10" s="1">
-        <v>1081.0524</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6803.1447</v>
-      </c>
       <c r="H10" s="1">
-        <v>89249.7748</v>
+        <v>75067.55650000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92961.7604</v>
+        <v>3677.8429</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6645</v>
+        <v>78745.3993</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82383.4409</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.3974</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-14256.1623</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89249.7748</v>
+        <v>-13677.8429</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0531</v>
+        <v>-0.0597</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>13.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>6759.2904</v>
       </c>
       <c r="F11" s="1">
         <v>766.0605</v>
       </c>
       <c r="G11" s="1">
-        <v>7569.2051</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>98294.4549</v>
+        <v>87776.82120000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102961.7604</v>
+        <v>-0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6027</v>
+        <v>87776.82120000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92383.4409</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6676</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98294.4549</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0109</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>13.8433</v>
       </c>
       <c r="E12" s="1">
+        <v>7525.3509</v>
+      </c>
+      <c r="F12" s="1">
+        <v>462.1596</v>
+      </c>
+      <c r="G12" s="1">
         <v>110000</v>
       </c>
-      <c r="F12" s="1">
-        <v>418.3053</v>
-      </c>
-      <c r="G12" s="1">
-        <v>7987.5104</v>
-      </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>103635.3695</v>
       </c>
       <c r="I12" s="1">
-        <v>108752.4861</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6153</v>
+        <v>103635.3695</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>98781.2545</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.1265</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-5790.7257</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>4209.2743</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114209.2743</v>
+        <v>-6397.8136</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0546</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>14.4086</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>7987.5104</v>
       </c>
       <c r="F13" s="1">
         <v>384.2516</v>
       </c>
       <c r="G13" s="1">
-        <v>8371.762000000001</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114492.1759</v>
       </c>
       <c r="I13" s="1">
-        <v>114289.0138</v>
+        <v>3602.1864</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6517</v>
+        <v>118094.3623</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>104317.7822</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.0601</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5536.5277</v>
       </c>
-      <c r="O13" s="1">
-        <v>8672.7466</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128672.7466</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0359</v>
+        <v>0.0392</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>14.9338</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8371.762000000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8371.762000000001</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>124373.4085</v>
       </c>
       <c r="I14" s="1">
-        <v>114289.0138</v>
+        <v>8065.6587</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6517</v>
+        <v>132439.0672</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>104317.7822</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.4607</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>124373.4085</v>
       </c>
-      <c r="O14" s="1">
-        <v>133046.1551</v>
-      </c>
-      <c r="P14" s="1">
-        <v>133046.1551</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0406</v>
+        <v>0.0339</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>12.8818</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>776.289</v>
       </c>
       <c r="G2" s="1">
-        <v>776.289</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8818</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>12.8509</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>776.289</v>
       </c>
       <c r="F3" s="1">
         <v>778.1556</v>
       </c>
       <c r="G3" s="1">
-        <v>1554.4446</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>19872.3312</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8663</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8818</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19872.3312</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0038</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>13.8614</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1554.4446</v>
       </c>
       <c r="F4" s="1">
         <v>632.0196999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>2186.4643</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30150.25</v>
+        <v>21435.0144</v>
       </c>
       <c r="I4" s="1">
-        <v>28760.6778</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.154</v>
+        <v>21435.0144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18760.6778</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.0691</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8760.677799999999</v>
       </c>
-      <c r="O4" s="1">
-        <v>1239.3222</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31389.5722</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0508</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>14.3229</v>
       </c>
       <c r="E5" s="1">
-        <v>40301.0012</v>
+        <v>2186.4643</v>
       </c>
       <c r="F5" s="1">
         <v>641.954</v>
       </c>
       <c r="G5" s="1">
-        <v>2828.4183</v>
+        <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>31154.0558</v>
       </c>
       <c r="I5" s="1">
-        <v>37955.3205</v>
+        <v>1239.3222</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4193</v>
+        <v>32393.378</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>27955.3205</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.7856</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9194.6427</v>
       </c>
-      <c r="O5" s="1">
-        <v>2044.6795</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42345.6808</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0231</v>
+        <v>0.0305</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>14.2341</v>
       </c>
       <c r="E6" s="1">
-        <v>50502.5063</v>
+        <v>2828.4183</v>
       </c>
       <c r="F6" s="1">
         <v>738.0925</v>
       </c>
       <c r="G6" s="1">
-        <v>3566.5108</v>
+        <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>40050.9691</v>
       </c>
       <c r="I6" s="1">
-        <v>48461.4027</v>
+        <v>2044.6795</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5879</v>
+        <v>42095.6486</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38461.4027</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.5982</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10506.0822</v>
       </c>
-      <c r="O6" s="1">
-        <v>1538.5973</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52041.1036</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0058</v>
+        <v>-0.007</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>13.7456</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3566.5108</v>
       </c>
       <c r="F7" s="1">
         <v>839.4393</v>
       </c>
       <c r="G7" s="1">
-        <v>4405.9501</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60248.284</v>
+        <v>48769.5387</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1538.5973</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6179</v>
+        <v>50308.136</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>14.0193</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11538.5973</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60248.284</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0289</v>
+        <v>-0.0343</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>14.5325</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>4405.9501</v>
       </c>
       <c r="F8" s="1">
         <v>509.1984</v>
       </c>
       <c r="G8" s="1">
-        <v>4915.1485</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>63697.2617</v>
       </c>
       <c r="I8" s="1">
-        <v>67399.92570000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.7127</v>
+        <v>63697.2617</v>
       </c>
       <c r="K8" s="1">
+        <v>57399.9257</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13.0278</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.75</v>
       </c>
-      <c r="L8" s="1">
-        <v>2974.0163</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-4425.9094</v>
+        <v>2407.3948</v>
       </c>
       <c r="O8" s="1">
-        <v>5574.0906</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>76632.8845</v>
+        <v>-4992.5309</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09089999999999999</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>14.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>4915.1485</v>
       </c>
       <c r="F9" s="1">
         <v>908.088</v>
       </c>
       <c r="G9" s="1">
-        <v>5823.2365</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>68718.2001</v>
       </c>
       <c r="I9" s="1">
-        <v>80162.01300000001</v>
+        <v>5007.4691</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7659</v>
+        <v>73725.6692</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>70162.01300000001</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.2746</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-12762.0873</v>
       </c>
-      <c r="O9" s="1">
-        <v>2812.0033</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84226.0912</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0278</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>13.1873</v>
       </c>
       <c r="E10" s="1">
+        <v>5823.2365</v>
+      </c>
+      <c r="F10" s="1">
+        <v>928.5738</v>
+      </c>
+      <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
-      <c r="F10" s="1">
-        <v>971.5411</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6794.7776</v>
-      </c>
       <c r="H10" s="1">
-        <v>89140.00780000001</v>
+        <v>76394.45789999999</v>
       </c>
       <c r="I10" s="1">
-        <v>92974.0163</v>
+        <v>2245.3818</v>
       </c>
       <c r="J10" s="1">
-        <v>13.6832</v>
+        <v>78639.8397</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82407.39479999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>14.1515</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-12812.0033</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>89140.00780000001</v>
+        <v>-12245.3818</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.054</v>
+        <v>-0.0607</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>13.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>6751.8104</v>
       </c>
       <c r="F11" s="1">
         <v>766.0605</v>
       </c>
       <c r="G11" s="1">
-        <v>7560.8381</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>98185.7991</v>
+        <v>87679.6848</v>
       </c>
       <c r="I11" s="1">
-        <v>102974.0163</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6194</v>
+        <v>87679.6848</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92407.39479999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.6863</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98185.7991</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0108</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>13.8433</v>
       </c>
       <c r="E12" s="1">
+        <v>7517.8708</v>
+      </c>
+      <c r="F12" s="1">
+        <v>672.3528</v>
+      </c>
+      <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
-      <c r="F12" s="1">
-        <v>629.3856</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8190.2237</v>
-      </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>103532.3583</v>
       </c>
       <c r="I12" s="1">
-        <v>111686.7903</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6366</v>
+        <v>103532.3583</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101714.9768</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.5298</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-8712.773999999999</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>1287.226</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>114078.8914</v>
+        <v>-9307.582</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0545</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>14.4086</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>8190.2237</v>
       </c>
       <c r="F13" s="1">
         <v>415.6424</v>
       </c>
       <c r="G13" s="1">
-        <v>8605.866099999999</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>117397.8472</v>
       </c>
       <c r="I13" s="1">
-        <v>117675.6154</v>
+        <v>692.418</v>
       </c>
       <c r="J13" s="1">
-        <v>13.6739</v>
+        <v>118090.2652</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>107703.8018</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.1503</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5988.825</v>
       </c>
-      <c r="O13" s="1">
-        <v>5298.401</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128654.0247</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0369</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>14.9338</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8605.866099999999</v>
       </c>
       <c r="F14" s="1">
         <v>-8605.866099999999</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>127851.3282</v>
       </c>
       <c r="I14" s="1">
-        <v>117675.6154</v>
+        <v>4703.5929</v>
       </c>
       <c r="J14" s="1">
-        <v>13.6739</v>
+        <v>132554.9211</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>107703.8018</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5152</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>127851.3282</v>
       </c>
-      <c r="O14" s="1">
-        <v>133149.7292</v>
-      </c>
-      <c r="P14" s="1">
-        <v>133149.7292</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0397</v>
+        <v>0.0349</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>12.8818</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>776.289</v>
       </c>
       <c r="G2" s="1">
-        <v>776.289</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8818</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>12.8509</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>776.289</v>
       </c>
       <c r="F3" s="1">
         <v>778.1556</v>
       </c>
       <c r="G3" s="1">
-        <v>1554.4446</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>19872.3312</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8663</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8818</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19872.3312</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0038</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>13.8614</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1554.4446</v>
       </c>
       <c r="F4" s="1">
         <v>642.9519</v>
       </c>
       <c r="G4" s="1">
-        <v>2197.3966</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>30301</v>
+        <v>21435.0144</v>
       </c>
       <c r="I4" s="1">
-        <v>28912.2138</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.1575</v>
+        <v>21435.0144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>18912.2138</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.1665</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-8912.2138</v>
       </c>
-      <c r="O4" s="1">
-        <v>1087.7862</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31388.7862</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0508</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>14.3229</v>
       </c>
       <c r="E5" s="1">
-        <v>40604.01</v>
+        <v>2197.3966</v>
       </c>
       <c r="F5" s="1">
         <v>652.2876</v>
       </c>
       <c r="G5" s="1">
-        <v>2849.6842</v>
+        <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>31309.8248</v>
       </c>
       <c r="I5" s="1">
-        <v>38254.864</v>
+        <v>1087.7862</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4242</v>
+        <v>32397.6109</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28254.864</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.8583</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9342.6502</v>
       </c>
-      <c r="O5" s="1">
-        <v>1745.136</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42349.146</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0232</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>14.2341</v>
       </c>
       <c r="E6" s="1">
-        <v>51010.0501</v>
+        <v>2849.6842</v>
       </c>
       <c r="F6" s="1">
         <v>752.6695999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>3602.3538</v>
+        <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>40352.0979</v>
       </c>
       <c r="I6" s="1">
-        <v>48968.4385</v>
+        <v>1745.136</v>
       </c>
       <c r="J6" s="1">
-        <v>13.5935</v>
+        <v>42097.2339</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>38968.4385</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.6747</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10713.5745</v>
       </c>
-      <c r="O6" s="1">
-        <v>1031.5615</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52041.6116</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0059</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>13.7456</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3602.3538</v>
       </c>
       <c r="F7" s="1">
         <v>802.5522</v>
       </c>
       <c r="G7" s="1">
-        <v>4404.906</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>60234.0059</v>
+        <v>49259.6664</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>1031.5615</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6212</v>
+        <v>50291.2279</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.8798</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-11031.5615</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60234.0059</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0291</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>14.5325</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>4404.906</v>
       </c>
       <c r="F8" s="1">
         <v>584.7083</v>
       </c>
       <c r="G8" s="1">
-        <v>4989.6142</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>63682.1663</v>
       </c>
       <c r="I8" s="1">
-        <v>68497.27280000001</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.728</v>
+        <v>63682.1663</v>
       </c>
       <c r="K8" s="1">
+        <v>58497.2728</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13.28</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.75</v>
       </c>
-      <c r="L8" s="1">
-        <v>2973.3115</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-5523.9612</v>
+        <v>2431.5888</v>
       </c>
       <c r="O8" s="1">
-        <v>4476.0388</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>76611.3909</v>
+        <v>-6065.684</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.09080000000000001</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>14.0538</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4989.6142</v>
       </c>
       <c r="F9" s="1">
         <v>936.8072</v>
       </c>
       <c r="G9" s="1">
-        <v>5926.4214</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>69759.2978</v>
       </c>
       <c r="I9" s="1">
-        <v>81662.9739</v>
+        <v>3934.316</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7795</v>
+        <v>73693.61380000001</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71662.9739</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3624</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-13165.7011</v>
       </c>
-      <c r="O9" s="1">
-        <v>1310.3377</v>
-      </c>
-      <c r="P9" s="1">
-        <v>84167.0433</v>
-      </c>
       <c r="Q9" s="3">
-        <v>-0.0282</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>13.1873</v>
       </c>
       <c r="E10" s="1">
+        <v>5926.4214</v>
+      </c>
+      <c r="F10" s="1">
+        <v>816.5898</v>
+      </c>
+      <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
-      <c r="F10" s="1">
-        <v>857.6689</v>
-      </c>
-      <c r="G10" s="1">
-        <v>6784.0904</v>
-      </c>
       <c r="H10" s="1">
-        <v>88999.80349999999</v>
+        <v>77748.1303</v>
       </c>
       <c r="I10" s="1">
-        <v>92973.3115</v>
+        <v>768.615</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7046</v>
+        <v>78516.7453</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82431.5888</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.9092</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-11310.3377</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>88999.80349999999</v>
+        <v>-10768.615</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0549</v>
+        <v>-0.0619</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>13.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>6743.0113</v>
       </c>
       <c r="F11" s="1">
         <v>766.0605</v>
       </c>
       <c r="G11" s="1">
-        <v>7550.1509</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>98047.014</v>
+        <v>87565.41869999999</v>
       </c>
       <c r="I11" s="1">
-        <v>102973.3115</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6386</v>
+        <v>87565.41869999999</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92431.5888</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7078</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>98047.014</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>13.8433</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>7509.0717</v>
       </c>
       <c r="F12" s="1">
         <v>722.3711</v>
       </c>
       <c r="G12" s="1">
-        <v>8272.522000000001</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>113925.0362</v>
+        <v>103411.1813</v>
       </c>
       <c r="I12" s="1">
-        <v>112973.3115</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6565</v>
+        <v>103411.1813</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102431.5888</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.641</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113925.0362</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0544</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>14.4086</v>
       </c>
       <c r="E13" s="1">
+        <v>8231.442800000001</v>
+      </c>
+      <c r="F13" s="1">
+        <v>616.4653</v>
+      </c>
+      <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
-      <c r="F13" s="1">
-        <v>575.3862</v>
-      </c>
-      <c r="G13" s="1">
-        <v>8847.908100000001</v>
-      </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>117988.6785</v>
       </c>
       <c r="I13" s="1">
-        <v>121263.8205</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7054</v>
+        <v>117988.6785</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111313.9904</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.523</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-8290.508900000001</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>1709.4911</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>128534.5212</v>
+        <v>-8882.401599999999</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0372</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>14.9338</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8847.908100000001</v>
       </c>
       <c r="F14" s="1">
         <v>-8847.908100000001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>131447.1773</v>
       </c>
       <c r="I14" s="1">
-        <v>121263.8205</v>
+        <v>1117.5984</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7054</v>
+        <v>132564.7757</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111313.9904</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.5808</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>131447.1773</v>
       </c>
-      <c r="O14" s="1">
-        <v>133156.6684</v>
-      </c>
-      <c r="P14" s="1">
-        <v>133156.6684</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0388</v>
+        <v>0.0358</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>12.8818</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>776.289</v>
       </c>
       <c r="G2" s="1">
-        <v>776.289</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.143899999999</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>12.8818</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.143899999999</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>12.8509</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>776.289</v>
       </c>
       <c r="F3" s="1">
         <v>778.1556</v>
       </c>
       <c r="G3" s="1">
-        <v>1554.4446</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>19872.3312</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>12.8663</v>
+        <v>9924.234200000001</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>12.8818</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>19872.3312</v>
-      </c>
       <c r="Q3" s="3">
-        <v>-0.0038</v>
+        <v>-0.0076</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>13.8614</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1554.4446</v>
       </c>
       <c r="F4" s="1">
         <v>653.9204</v>
       </c>
       <c r="G4" s="1">
-        <v>2208.3651</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>30452.25</v>
+        <v>21435.0144</v>
       </c>
       <c r="I4" s="1">
-        <v>29064.2525</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>13.161</v>
+        <v>21435.0144</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>19064.2525</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>12.2643</v>
       </c>
       <c r="M4" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P4" s="1">
         <v>-9064.252500000001</v>
       </c>
-      <c r="O4" s="1">
-        <v>935.7474999999999</v>
-      </c>
-      <c r="P4" s="1">
-        <v>31387.9975</v>
-      </c>
       <c r="Q4" s="3">
-        <v>0.0507</v>
+        <v>0.07580000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>14.3229</v>
       </c>
       <c r="E5" s="1">
-        <v>40909.0337</v>
+        <v>2208.3651</v>
       </c>
       <c r="F5" s="1">
         <v>662.7264</v>
       </c>
       <c r="G5" s="1">
-        <v>2871.0915</v>
+        <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>31466.1104</v>
       </c>
       <c r="I5" s="1">
-        <v>38556.4164</v>
+        <v>935.7474999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>13.4292</v>
+        <v>32401.8579</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>28556.4164</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>12.931</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P5" s="1">
         <v>-9492.1639</v>
       </c>
-      <c r="O5" s="1">
-        <v>1443.5836</v>
-      </c>
-      <c r="P5" s="1">
-        <v>42352.6174</v>
-      </c>
       <c r="Q5" s="3">
-        <v>0.0233</v>
+        <v>0.0308</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>14.2341</v>
       </c>
       <c r="E6" s="1">
-        <v>51522.6693</v>
+        <v>2871.0915</v>
       </c>
       <c r="F6" s="1">
         <v>767.4637</v>
       </c>
       <c r="G6" s="1">
-        <v>3638.5552</v>
+        <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>40655.2293</v>
       </c>
       <c r="I6" s="1">
-        <v>49480.5719</v>
+        <v>1443.5836</v>
       </c>
       <c r="J6" s="1">
-        <v>13.599</v>
+        <v>42098.8129</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39480.5719</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>13.7511</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="1">
         <v>-10924.1556</v>
       </c>
-      <c r="O6" s="1">
-        <v>519.4281</v>
-      </c>
-      <c r="P6" s="1">
-        <v>52042.0973</v>
-      </c>
       <c r="Q6" s="3">
-        <v>-0.0059</v>
+        <v>-0.0071</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>13.7456</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3638.5552</v>
       </c>
       <c r="F7" s="1">
         <v>765.2942</v>
       </c>
       <c r="G7" s="1">
-        <v>4403.8494</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>60219.5579</v>
+        <v>49754.6953</v>
       </c>
       <c r="I7" s="1">
-        <v>60000</v>
+        <v>519.4281</v>
       </c>
       <c r="J7" s="1">
-        <v>13.6244</v>
+        <v>50274.1233</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>13.7417</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-10519.4281</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>60219.5579</v>
-      </c>
       <c r="Q7" s="3">
-        <v>-0.0294</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>14.5325</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>4403.8494</v>
       </c>
       <c r="F8" s="1">
         <v>661.4778</v>
       </c>
       <c r="G8" s="1">
-        <v>5065.3272</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>63666.8912</v>
       </c>
       <c r="I8" s="1">
-        <v>69612.9262</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>13.743</v>
+        <v>63666.8912</v>
       </c>
       <c r="K8" s="1">
+        <v>59612.9262</v>
+      </c>
+      <c r="L8" s="1">
+        <v>13.5365</v>
+      </c>
+      <c r="M8" s="1">
         <v>0.75</v>
       </c>
-      <c r="L8" s="1">
-        <v>2972.5983</v>
-      </c>
-      <c r="M8" s="1">
-        <v>10000</v>
-      </c>
       <c r="N8" s="1">
-        <v>-6640.3278</v>
+        <v>2456.0248</v>
       </c>
       <c r="O8" s="1">
-        <v>3359.6722</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>76589.61410000001</v>
+        <v>-7156.9014</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0907</v>
+        <v>0.0563</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>14.0538</v>
       </c>
       <c r="E9" s="1">
+        <v>5065.3272</v>
+      </c>
+      <c r="F9" s="1">
+        <v>913.8524</v>
+      </c>
+      <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
-      <c r="F9" s="1">
-        <v>950.6092</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6015.9364</v>
-      </c>
       <c r="H9" s="1">
-        <v>84108.2059</v>
+        <v>70817.8331</v>
       </c>
       <c r="I9" s="1">
-        <v>82972.5983</v>
+        <v>2843.0986</v>
       </c>
       <c r="J9" s="1">
-        <v>13.7921</v>
+        <v>73660.9317</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>72456.0248</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>14.3043</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-13359.6722</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>84108.2059</v>
+        <v>-12843.0986</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0287</v>
+        <v>-0.0001</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>13.1873</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>5979.1796</v>
       </c>
       <c r="F10" s="1">
         <v>758.3053</v>
       </c>
       <c r="G10" s="1">
-        <v>6774.2418</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>88870.60060000001</v>
+        <v>78440.25900000001</v>
       </c>
       <c r="I10" s="1">
-        <v>92972.5983</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>13.7244</v>
+        <v>78440.25900000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>82456.0248</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>13.7905</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-10000</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-      <c r="P10" s="1">
-        <v>88870.60060000001</v>
-      </c>
       <c r="Q10" s="3">
-        <v>-0.0557</v>
+        <v>-0.0624</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>13.0538</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>6737.4849</v>
       </c>
       <c r="F11" s="1">
         <v>766.0605</v>
       </c>
       <c r="G11" s="1">
-        <v>7540.3022</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>97919.11900000001</v>
+        <v>87493.65300000001</v>
       </c>
       <c r="I11" s="1">
-        <v>102972.5983</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>13.6563</v>
+        <v>87493.65300000001</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>92456.0248</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>13.7226</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-10000</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>97919.11900000001</v>
-      </c>
       <c r="Q11" s="3">
-        <v>-0.009599999999999999</v>
+        <v>-0.0107</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>13.8433</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>7503.5454</v>
       </c>
       <c r="F12" s="1">
         <v>722.3711</v>
       </c>
       <c r="G12" s="1">
-        <v>8262.6734</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>113789.4061</v>
+        <v>103335.0752</v>
       </c>
       <c r="I12" s="1">
-        <v>112972.5983</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>13.6726</v>
+        <v>103335.0752</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>102456.0248</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>13.6543</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-10000</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>113789.4061</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0544</v>
+        <v>0.0599</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>14.4086</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>8225.916499999999</v>
       </c>
       <c r="F13" s="1">
         <v>694.03</v>
       </c>
       <c r="G13" s="1">
-        <v>8956.703299999999</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>128384.4896</v>
+        <v>117909.4644</v>
       </c>
       <c r="I13" s="1">
-        <v>122972.5983</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>13.7297</v>
+        <v>117909.4644</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>112456.0248</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>13.6709</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-10000</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-      <c r="P13" s="1">
-        <v>128384.4896</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0371</v>
+        <v>0.0404</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,43 +4396,43 @@
         <v>14.9338</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>8919.946400000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8956.703299999999</v>
+        <v>-8919.946400000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>132517.4004</v>
       </c>
       <c r="I14" s="1">
-        <v>122972.5983</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>13.7297</v>
+        <v>132517.4004</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>112456.0248</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>12.6073</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>133063.4714</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>133063.4714</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>133063.4714</v>
+        <v>132517.4004</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0385</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>14.8935</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.7221</v>
+        <v>12.6018</v>
       </c>
       <c r="D3" s="1">
-        <v>13.6517</v>
+        <v>12.4607</v>
       </c>
       <c r="E3" s="1">
-        <v>13.6739</v>
+        <v>12.5152</v>
       </c>
       <c r="F3" s="1">
-        <v>13.7054</v>
+        <v>12.5808</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7297</v>
+        <v>12.6073</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.1593</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0858</v>
+        <v>0.1776</v>
       </c>
       <c r="D4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.1767</v>
       </c>
       <c r="E4" s="3">
-        <v>0.08649999999999999</v>
+        <v>0.1773</v>
       </c>
       <c r="F4" s="3">
-        <v>0.08599999999999999</v>
+        <v>0.1769</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0848</v>
+        <v>0.1762</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.146</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1457</v>
+        <v>0.1374</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1454</v>
+        <v>0.1357</v>
       </c>
       <c r="E5" s="3">
-        <v>0.146</v>
+        <v>0.1368</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1463</v>
+        <v>0.1378</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1466</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>0.9518</v>
       </c>
       <c r="C6" s="4">
-        <v>0.4492</v>
+        <v>1.1448</v>
       </c>
       <c r="D6" s="4">
-        <v>0.4519</v>
+        <v>1.1522</v>
       </c>
       <c r="E6" s="4">
-        <v>0.4534</v>
+        <v>1.1474</v>
       </c>
       <c r="F6" s="4">
-        <v>0.4492</v>
+        <v>1.1366</v>
       </c>
       <c r="G6" s="4">
-        <v>0.4397</v>
+        <v>1.1271</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2106</v>
+        <v>0.0278</v>
       </c>
       <c r="D7" s="3">
-        <v>0.215</v>
+        <v>0.2041</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2139</v>
+        <v>0.2034</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2117</v>
+        <v>0.2015</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2087</v>
+        <v>0.1996</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>2972.7668</v>
+        <v>2481.7005</v>
       </c>
       <c r="D8" s="1">
-        <v>2961.7604</v>
+        <v>2383.4409</v>
       </c>
       <c r="E8" s="1">
-        <v>2974.0163</v>
+        <v>2407.3948</v>
       </c>
       <c r="F8" s="1">
-        <v>2973.3115</v>
+        <v>2431.5888</v>
       </c>
       <c r="G8" s="1">
-        <v>2972.5983</v>
+        <v>2456.0248</v>
       </c>
     </row>
   </sheetData>
